--- a/data/trans_bre/P2C_R2-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R2-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>8.044671809365195</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5.359497428629756</v>
+        <v>5.359497428629753</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3891495277809899</v>
@@ -649,7 +649,7 @@
         <v>0.2222848797567328</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.2663547517758724</v>
+        <v>0.2663547517758723</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>5.046439326848669</v>
+        <v>5.084971814535004</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.424051920255951</v>
+        <v>0.437316702829077</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.015091393578127</v>
+        <v>4.054319382774948</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.3894891022838768</v>
+        <v>0.3845793537989111</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.174270854379888</v>
+        <v>0.1674453004766868</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.009703880938690951</v>
+        <v>0.008733474800213289</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1005010324489927</v>
+        <v>0.1110060054231164</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.02169976973172966</v>
+        <v>0.01628172634230449</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.87735547557999</v>
+        <v>14.58878196012821</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.320348425344314</v>
+        <v>9.608859846157571</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.79791619619421</v>
+        <v>12.40736707967691</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.95444870386596</v>
+        <v>10.07179772800218</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6562896125306834</v>
+        <v>0.6543701704423865</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1925006351145841</v>
+        <v>0.2032496081417931</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3441402705109996</v>
+        <v>0.3737688623866356</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.5827257386555768</v>
+        <v>0.5952489884952512</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1092856866090963</v>
+        <v>0.5584894694082237</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7722156767124816</v>
+        <v>0.326634980164247</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.449078374645776</v>
+        <v>3.831753476517445</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7627821005051603</v>
+        <v>1.207362835862374</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.0005396866929003445</v>
+        <v>0.01428180405656487</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0163741538252115</v>
+        <v>0.006676989686324273</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1025241240206912</v>
+        <v>0.1212963252259631</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.04099310397154345</v>
+        <v>0.05386455600323209</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.461553100055395</v>
+        <v>8.768483140714814</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.179098392113591</v>
+        <v>9.258481393780716</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12.24769018452619</v>
+        <v>12.54294010751867</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.005753719742829</v>
+        <v>8.360491757705022</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2809166151663798</v>
+        <v>0.2893220645644404</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2004587216067658</v>
+        <v>0.2037447748404838</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4274352310202985</v>
+        <v>0.4491326826567466</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4857015350285731</v>
+        <v>0.5129630102641828</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>3.822739920656354</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4.633321637172089</v>
+        <v>4.633321637172092</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1067227916020498</v>
@@ -849,7 +849,7 @@
         <v>0.1291154672523248</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.3744930329973007</v>
+        <v>0.3744930329973009</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.8797979583182425</v>
+        <v>-0.6172437866799367</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>5.999996208277617</v>
+        <v>5.968348081124004</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.8747724910121984</v>
+        <v>-0.4955622174093934</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.496538804802774</v>
+        <v>1.732950075357399</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.02704028283384536</v>
+        <v>-0.01852708280536695</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1483485362457438</v>
+        <v>0.1474208584407711</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.0284666030477716</v>
+        <v>-0.0182268833126751</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1079240539008365</v>
+        <v>0.1228666032012574</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.410286416064346</v>
+        <v>7.12622938569593</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.97424433336108</v>
+        <v>15.90587105103442</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.454967383664648</v>
+        <v>8.755399248591115</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.600131032979898</v>
+        <v>7.820157252473152</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.253250137966048</v>
+        <v>0.2452573793474568</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4526043392856582</v>
+        <v>0.4569128196705852</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3051124647693746</v>
+        <v>0.310553351397521</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.7216906635906639</v>
+        <v>0.7603852750266836</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.6853158786371886</v>
+        <v>-0.9704866920181578</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.839521123290666</v>
+        <v>-2.090423414677051</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.034261254238507</v>
+        <v>3.184450244627008</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.5042558475017</v>
+        <v>-1.738332418183024</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.02669075287667956</v>
+        <v>-0.03703685399692494</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.04239609084664465</v>
+        <v>-0.04809344632209378</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.112533553256947</v>
+        <v>0.1185493624102509</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1832898787135041</v>
+        <v>-0.2328612292100681</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>11.66896170336957</v>
+        <v>11.87831883101301</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>11.33309728195179</v>
+        <v>11.85695036840991</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>15.25842550017173</v>
+        <v>14.87632822410321</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.089463212028597</v>
+        <v>3.118610968348939</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5575415785084675</v>
+        <v>0.5927608389871631</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3082146478765374</v>
+        <v>0.3188355868641588</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6879719961191262</v>
+        <v>0.6647326196044836</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5422610929214329</v>
+        <v>0.5600808475864339</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>7.471147988566856</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4.449765032456895</v>
+        <v>4.449765032456901</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1869354768588788</v>
@@ -1049,7 +1049,7 @@
         <v>0.2380845168935005</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.326501393763359</v>
+        <v>0.3265013937633595</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.134901948603069</v>
+        <v>3.169755368752552</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.301255860890748</v>
+        <v>4.018477113041971</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.231889464194537</v>
+        <v>5.236639757191267</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.708476559886916</v>
+        <v>2.735474254196723</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1032341574945956</v>
+        <v>0.1043253751784659</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09240837035836927</v>
+        <v>0.08822972283277694</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1597090938920982</v>
+        <v>0.1606510623592686</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1853300016817988</v>
+        <v>0.1870061614670306</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.801030602038712</v>
+        <v>7.591693216258891</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.273764571024222</v>
+        <v>9.289530152673002</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.877436537684142</v>
+        <v>9.969193382961468</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.168401176143528</v>
+        <v>6.209024442677717</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2781350593098104</v>
+        <v>0.2703110996041362</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2122944454796384</v>
+        <v>0.2138648962637697</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3245921286232259</v>
+        <v>0.3302371507073897</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.4930512896097767</v>
+        <v>0.4949483382962287</v>
       </c>
     </row>
     <row r="19">
